--- a/source/template_EERR.xlsx
+++ b/source/template_EERR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29113"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B48273-3ADB-4073-BCBF-F12E50F1C012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A623D01-F2A6-4C8B-9EAA-A7227FCBE8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EERR" sheetId="1" r:id="rId1"/>
@@ -40,30 +40,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
   <si>
     <t>ID RESERVA</t>
   </si>
@@ -188,13 +166,46 @@
     <t>CODIGO COMERCIO</t>
   </si>
   <si>
+    <t>TIPO VENTA</t>
+  </si>
+  <si>
     <t>TIPO MOVIMIENTO</t>
   </si>
   <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>PROPINA</t>
+  </si>
+  <si>
+    <t>VUELTO</t>
+  </si>
+  <si>
+    <t>TIPO CUOTA</t>
+  </si>
+  <si>
+    <t>MONTO CUOTA</t>
+  </si>
+  <si>
+    <t>NUMERO CUOTAS</t>
+  </si>
+  <si>
     <t>MONEDA</t>
   </si>
   <si>
+    <t>TARJETA</t>
+  </si>
+  <si>
     <t>NUMERO TARJETA</t>
+  </si>
+  <si>
+    <t>CODIGO EMPLEADO</t>
+  </si>
+  <si>
+    <t>NUMERO BOLETA</t>
+  </si>
+  <si>
+    <t>CODIGO AUTORIZACION</t>
   </si>
   <si>
     <t>NUMERO OPERACION</t>
@@ -291,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +367,19 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -366,7 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,7 +478,6 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -501,104 +524,119 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="10"/>
         <name val="Arial"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="10"/>
         <name val="Arial"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="10"/>
         <name val="Arial"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="10"/>
         <name val="Arial"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="10"/>
         <name val="Arial"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="10"/>
         <name val="Arial"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="10"/>
         <name val="Arial"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="10"/>
         <name val="Arial"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -611,12 +649,13 @@
     <dxf>
       <font>
         <b/>
+        <sz val="10"/>
         <name val="Arial"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -634,7 +673,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{267AA40C-5AE5-4DBD-9C0C-43736882A3D0}" name="Siteminder" displayName="Siteminder" ref="A1:M2" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{267AA40C-5AE5-4DBD-9C0C-43736882A3D0}" name="Siteminder" displayName="Siteminder" ref="A1:M2" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:M2" xr:uid="{267AA40C-5AE5-4DBD-9C0C-43736882A3D0}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{223721A2-A60E-4AB3-A83B-6F36BD366CBE}" name="ID RESERVA"/>
@@ -646,15 +685,15 @@
     <tableColumn id="7" xr3:uid="{E36F4494-C021-4C5F-8F27-BCD20D556108}" name="FECHA RESERVA"/>
     <tableColumn id="8" xr3:uid="{138B83EC-9676-4DB4-9CCB-47AFCB0EDA89}" name="ESTADO"/>
     <tableColumn id="9" xr3:uid="{9C1D1A3E-9AFD-41AA-B045-519069FA218A}" name="TOTAL"/>
-    <tableColumn id="10" xr3:uid="{9FDF4775-9D37-4977-ABA5-444072D97CA3}" name="NOCHES" dataDxfId="9">
-      <calculatedColumnFormula array="1">Siteminder[SALIDA]=Siteminder[LLEGADA]</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{9FDF4775-9D37-4977-ABA5-444072D97CA3}" name="NOCHES" dataDxfId="10">
+      <calculatedColumnFormula>Siteminder[[#This Row],[SALIDA]]-Siteminder[[#This Row],[LLEGADA]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{0739C89C-3B99-4040-B765-1DABA7BA04D9}" name="HABITACIONES"/>
     <tableColumn id="12" xr3:uid="{D64B8813-0BA9-42D4-851F-E81108BA0504}" name="TARIFA">
-      <calculatedColumnFormula array="1">Siteminder[TOTAL]/(Siteminder[NOCHES]*Siteminder[HABITACIONES])</calculatedColumnFormula>
+      <calculatedColumnFormula>Siteminder[[#This Row],[TOTAL]]/(Siteminder[[#This Row],[NOCHES]]*Siteminder[[#This Row],[HABITACIONES]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D96A3EB9-25A6-4102-95A2-FDFC9895C142}" name="OCUPACIÓN" dataDxfId="8">
-      <calculatedColumnFormula array="1">ROUND(Siteminder[TOTAL]/Siteminder[TARIFA],0)</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{D96A3EB9-25A6-4102-95A2-FDFC9895C142}" name="OCUPACIÓN" dataDxfId="9">
+      <calculatedColumnFormula>ROUND(Siteminder[[#This Row],[TOTAL]]/Siteminder[[#This Row],[TARIFA]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -667,7 +706,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B00896A8-150B-43CD-86FA-FAD7A8A86C84}" name="Cuenta_85" displayName="Cuenta_85" ref="A2:K3" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B00896A8-150B-43CD-86FA-FAD7A8A86C84}" name="Cuenta_85" displayName="Cuenta_85" ref="A2:K3" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A2:K3" xr:uid="{B00896A8-150B-43CD-86FA-FAD7A8A86C84}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{23AA1E1A-E6C8-4685-93BF-3B68E0C0B9DD}" name="FECHA"/>
@@ -687,7 +726,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B01D9E5-D6F9-4F8E-B215-64FADBE29E28}" name="BCI_Comercio_Exterior" displayName="BCI_Comercio_Exterior" ref="A15:I16" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B01D9E5-D6F9-4F8E-B215-64FADBE29E28}" name="BCI_Comercio_Exterior" displayName="BCI_Comercio_Exterior" ref="A15:I16" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A15:I16" xr:uid="{1B01D9E5-D6F9-4F8E-B215-64FADBE29E28}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{6EAFFFC6-120A-4F6C-8527-A16ECBC71FFE}" name="FECHA"/>
@@ -705,7 +744,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{361D9CCD-B2F9-4715-95A4-D6BCF6759909}" name="TC_Nacional" displayName="TC_Nacional" ref="A19:I21" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{361D9CCD-B2F9-4715-95A4-D6BCF6759909}" name="TC_Nacional" displayName="TC_Nacional" ref="A19:I21" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A19:I21" xr:uid="{361D9CCD-B2F9-4715-95A4-D6BCF6759909}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7D043751-866B-40B5-B065-5925C07246D4}" name="FECHA"/>
@@ -723,7 +762,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{19090BDF-977F-41F8-9EB3-F2EB62B4810F}" name="TC_Internacional" displayName="TC_Internacional" ref="A23:I24" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{19090BDF-977F-41F8-9EB3-F2EB62B4810F}" name="TC_Internacional" displayName="TC_Internacional" ref="A23:I24" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A23:I24" xr:uid="{19090BDF-977F-41F8-9EB3-F2EB62B4810F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{64B72556-9506-4E8F-A666-88B83578CEE5}" name="FECHA"/>
@@ -741,7 +780,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38CF20F7-915C-43E6-A9D0-56BC52655784}" name="Cuenta_18" displayName="Cuenta_18" ref="A2:J3" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38CF20F7-915C-43E6-A9D0-56BC52655784}" name="Cuenta_18" displayName="Cuenta_18" ref="A2:J3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A2:J3" xr:uid="{38CF20F7-915C-43E6-A9D0-56BC52655784}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D20DE208-F59C-4F16-A56F-DB9D16E1EB0B}" name="FECHA"/>
@@ -760,7 +799,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2D7F5ED1-72E8-4B66-AE13-C42F0F5DFB7E}" name="Otros" displayName="Otros" ref="A6:F7" insertRow="1" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2D7F5ED1-72E8-4B66-AE13-C42F0F5DFB7E}" name="Otros" displayName="Otros" ref="A6:F7" insertRow="1" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A6:F7" xr:uid="{2D7F5ED1-72E8-4B66-AE13-C42F0F5DFB7E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3DAC2DE7-7DCC-4D25-8CDC-1314754AFC83}" name="FECHA"/>
@@ -775,7 +814,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{25036312-D5A7-4EC4-89BF-32B3F2C9AEAB}" name="Security" displayName="Security" ref="A2:H3" insertRow="1" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{25036312-D5A7-4EC4-89BF-32B3F2C9AEAB}" name="Security" displayName="Security" ref="A2:H3" insertRow="1" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A2:H3" xr:uid="{25036312-D5A7-4EC4-89BF-32B3F2C9AEAB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{78DAAC34-1FBB-4C3A-9B77-FEC5563E0348}" name="FECHA"/>
@@ -792,19 +831,32 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{641BCA76-6E6D-44CB-9649-EFD31B97B1B1}" name="Transbank" displayName="Transbank" ref="A1:J3" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:J3" xr:uid="{641BCA76-6E6D-44CB-9649-EFD31B97B1B1}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{641BCA76-6E6D-44CB-9649-EFD31B97B1B1}" name="Transbank" displayName="Transbank" ref="A1:U3" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:U3" xr:uid="{641BCA76-6E6D-44CB-9649-EFD31B97B1B1}"/>
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{961D6A8E-E895-4A81-A607-9FC3DD6A25B2}" name="NUMERO"/>
-    <tableColumn id="2" xr3:uid="{DAB21675-3384-4BA4-8FE8-4B90D9CC95D8}" name="PESOS"/>
+    <tableColumn id="2" xr3:uid="{DAB21675-3384-4BA4-8FE8-4B90D9CC95D8}" name="PESOS" dataDxfId="0">
+      <calculatedColumnFormula>IF(Transbank[[#This Row],[MONEDA]]="PESO", VALUE(Transbank[[#This Row],[TOTAL]]), Transbank[[#This Row],[TOTAL]]*EERR!$D$2)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{945A1D4F-5DA9-4691-9DCA-3475C9B2743E}" name="FECHA"/>
     <tableColumn id="4" xr3:uid="{8E020A7C-9F0B-432F-BFD8-A31AD78C374A}" name="HORA"/>
     <tableColumn id="5" xr3:uid="{C2E31560-21B9-4987-87BD-05C07D5C96D5}" name="CODIGO COMERCIO"/>
-    <tableColumn id="6" xr3:uid="{EDD8239D-C7FD-4840-B131-970274D97B30}" name="TIPO MOVIMIENTO"/>
-    <tableColumn id="7" xr3:uid="{FA241856-AE58-4338-85E1-D2D47A83EC8B}" name="TOTAL"/>
-    <tableColumn id="8" xr3:uid="{285E18AD-B343-4BAE-B54D-E42882ECCFFF}" name="MONEDA"/>
-    <tableColumn id="9" xr3:uid="{3FDA0ADE-B723-4BBC-9872-5679D73CCC54}" name="NUMERO TARJETA"/>
-    <tableColumn id="10" xr3:uid="{07A3156F-E819-474E-8ED8-673FC941FE3F}" name="NUMERO OPERACION"/>
+    <tableColumn id="6" xr3:uid="{EDD8239D-C7FD-4840-B131-970274D97B30}" name="TIPO VENTA"/>
+    <tableColumn id="7" xr3:uid="{FA241856-AE58-4338-85E1-D2D47A83EC8B}" name="TIPO MOVIMIENTO"/>
+    <tableColumn id="8" xr3:uid="{285E18AD-B343-4BAE-B54D-E42882ECCFFF}" name="MONTO"/>
+    <tableColumn id="9" xr3:uid="{3FDA0ADE-B723-4BBC-9872-5679D73CCC54}" name="PROPINA"/>
+    <tableColumn id="10" xr3:uid="{07A3156F-E819-474E-8ED8-673FC941FE3F}" name="VUELTO"/>
+    <tableColumn id="11" xr3:uid="{ED2113F0-84C9-4675-B9AC-6BEFEE2D249F}" name="TOTAL"/>
+    <tableColumn id="12" xr3:uid="{18EE278F-53B4-4781-8956-A43B4EA9EA89}" name="TIPO CUOTA"/>
+    <tableColumn id="13" xr3:uid="{ED086252-30BD-4D26-8B63-60EAE5EBAECF}" name="MONTO CUOTA"/>
+    <tableColumn id="14" xr3:uid="{F4C5D7AA-6B54-4F07-B8B4-54B350B83345}" name="NUMERO CUOTAS"/>
+    <tableColumn id="15" xr3:uid="{2D8876C6-EA96-4ED0-9C44-79767D4ECD9C}" name="MONEDA"/>
+    <tableColumn id="16" xr3:uid="{84A9EF3F-5D30-4750-9A8D-DC400509EF3A}" name="TARJETA"/>
+    <tableColumn id="17" xr3:uid="{AB87D9A5-F3D1-4F46-8657-DF6D540907DC}" name="NUMERO TARJETA"/>
+    <tableColumn id="18" xr3:uid="{6BB85B04-4FB6-435F-B8E2-278F06FB7220}" name="CODIGO EMPLEADO"/>
+    <tableColumn id="19" xr3:uid="{B8B033AB-1369-432B-A57F-1E900F88839A}" name="NUMERO BOLETA"/>
+    <tableColumn id="20" xr3:uid="{A87CAE40-0621-4DC7-84B2-14DA260BA45E}" name="CODIGO AUTORIZACION"/>
+    <tableColumn id="21" xr3:uid="{9F85E597-A7EC-4A6F-9FB4-59C0F6B71C71}" name="NUMERO OPERACION"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1141,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAE26EC-AA5C-4D70-B0B1-B2FC74DFA9A0}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1163,75 +1215,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="J2" t="b" cm="1">
-        <f t="array" ref="J2">Siteminder[SALIDA]=Siteminder[LLEGADA]</f>
-        <v>1</v>
-      </c>
-      <c r="L2" t="e" cm="1">
-        <f t="array" ref="L2">Siteminder[TOTAL]/(Siteminder[NOCHES]*Siteminder[HABITACIONES])</f>
+      <c r="J2">
+        <f>Siteminder[[#This Row],[SALIDA]]-Siteminder[[#This Row],[LLEGADA]]</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="e">
+        <f>Siteminder[[#This Row],[TOTAL]]/(Siteminder[[#This Row],[NOCHES]]*Siteminder[[#This Row],[HABITACIONES]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M2" s="8" t="e" cm="1">
-        <f t="array" ref="M2">ROUND(Siteminder[TOTAL]/Siteminder[TARIFA],0)</f>
+      <c r="M2" s="7" t="e">
+        <f>ROUND(Siteminder[[#This Row],[TOTAL]]/Siteminder[[#This Row],[TARIFA]],0)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="J3" s="24"/>
-      <c r="M3" s="8"/>
+      <c r="J3" s="23"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="J4" s="24"/>
-      <c r="M4" s="8"/>
+      <c r="J4" s="23"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="J5" s="24"/>
-      <c r="M5" s="8"/>
+      <c r="J5" s="23"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="J6" s="24"/>
-      <c r="M6" s="8"/>
+      <c r="J6" s="23"/>
+      <c r="M6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1245,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFDCB6F-C2D3-4842-BEC4-14056BC1EFBF}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1278,37 +1330,37 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1321,31 +1373,31 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1355,31 +1407,31 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1392,148 +1444,148 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="1:9" ht="18.75">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="I28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" ht="18.75">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="9"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="8"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:9" ht="18.75">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="9"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="8"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:9" ht="18.75">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="9"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="8"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:9" ht="18.75">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="9"/>
-      <c r="E32" s="8"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="8"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="18.75">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="9"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="8"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" ht="18.75">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="9"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="8"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="18.75">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="9"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="8"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="18.75">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="9"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="8"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" ht="18.75">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="9"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="8"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="18.75">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="9"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="8"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="18.75">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="9"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" ht="18.75">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="9"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="8"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="18.75">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="9"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="8"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="18.75">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="9"/>
-      <c r="E42" s="8"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="8"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="18.75">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="9"/>
-      <c r="E43" s="8"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="18.75">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="9"/>
-      <c r="E44" s="8"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="8"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1553,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF59191-4A9E-4405-A444-4EBA532DB87F}">
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1572,211 +1624,212 @@
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="K2" s="26"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="17"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="17"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="17"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="18"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="18"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1792,7 +1845,7 @@
   <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1805,110 +1858,110 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="18.75">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="18.75">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="18.75">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="18.75">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="18.75">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="18.75">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="18.75">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="18.75">
-      <c r="A15" s="22"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="18.75">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
     </row>
     <row r="17" spans="1:2" ht="18.75">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
     </row>
     <row r="18" spans="1:2" ht="18.75">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
     </row>
     <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="22"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:2" ht="18.75">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
     </row>
     <row r="21" spans="1:2" ht="18.75">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
     </row>
     <row r="22" spans="1:2" ht="18.75">
-      <c r="A22" s="22"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="16"/>
     </row>
     <row r="23" spans="1:2" ht="18.75">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
     </row>
     <row r="24" spans="1:2" ht="18.75">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1925,54 +1978,117 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2872E860-9453-44FF-9440-33851A795091}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>44</v>
+      <c r="L1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="25"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="B2">
+        <f>IF(Transbank[[#This Row],[MONEDA]]="PESO", VALUE(Transbank[[#This Row],[TOTAL]]), Transbank[[#This Row],[TOTAL]]*EERR!$D$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="B3">
+        <f>IF(Transbank[[#This Row],[MONEDA]]="PESO", VALUE(Transbank[[#This Row],[TOTAL]]), Transbank[[#This Row],[TOTAL]]*EERR!$D$2)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1998,147 +2114,147 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="26.25">
-      <c r="A2" s="11" t="s">
-        <v>46</v>
+      <c r="A2" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="26.25">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="26.25">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="26.25">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="26.25">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="52.5">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="26.25">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="26.25">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="26.25">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="26.25">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="26.25">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="26.25">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="26.25">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="26.25">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="26.25">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="26.25">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="26.25">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="26.25">
       <c r="A20" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="26.25">
       <c r="A21" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="26.25">
       <c r="A22" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="26.25">
       <c r="A23" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="26.25">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="26.25">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="26.25">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="26.25">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="26.25">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="26.25">
       <c r="A29" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
